--- a/medicine/Psychotrope/Big_Tobacco/Big_Tobacco.xlsx
+++ b/medicine/Psychotrope/Big_Tobacco/Big_Tobacco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Big Tobacco est un nom utilisé pour désigner les plus grandes entreprises mondiales de l'industrie du tabac . Les cinq plus grandes sociétés productrices de tabac sont Philip Morris International, Altria, British American Tobacco, Imperial Brands et Japan Tobacco International. 
 De plus, China Tobacco produit 2 500 milliards de cigarettes par an, soit trois fois plus que la plus grande des cinq sociétés habituellement répertoriées comme la plus grande au monde, Philip Morris. Cependant, China Tobacco n'exporte qu'une petite fraction de sa production.
@@ -512,9 +524,11 @@
           <t>Exemples d'utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, la directrice générale de l'Organisation mondiale de la santé (Margaret Chan) parle de « Big Tobacco » dans son discours d'ouverture de la huitième Conférence mondiale sur la promotion de la santé[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, la directrice générale de l'Organisation mondiale de la santé (Margaret Chan) parle de « Big Tobacco » dans son discours d'ouverture de la huitième Conférence mondiale sur la promotion de la santé :
 « Les efforts de prévention des maladies non transmissibles vont à l'encontre des intérêts commerciaux des puissants opérateurs économiques. [...] il ne s'agit plus seulement de Big Tobacco. La santé publique doit également faire face aux Big Food, Big Soda et Big Alcohol. Toutes ces industries craignent la réglementation et se protègent en utilisant les mêmes tactiques que des travaux de recherche ont bien documentées. Elles comprennent des groupes de façade, des lobbys, des promesses d'autorégulation, des poursuites judiciaires et des recherches financées par l'industrie qui brouillent les pistes et maintiennent le public dans le doute. Les tactiques comprennent également les cadeaux, les subventions et les contributions à des causes louables qui donnent à ces industries une apparence respectable aux yeux des politiciens et du public. Elles comprennent des arguments qui font porter aux individus la responsabilité des dommages causés à la santé et qui présentent les actions du gouvernement comme une ingérence dans les libertés individuelles et le libre choix. Il s'agit là d'une formidable opposition. [...] Lorsque l'industrie est impliquée dans l'élaboration des politiques, soyez assurés que les mesures de contrôle les plus efficaces seront minimisées ou totalement écartées. Cela aussi est bien documenté et dangereux. Selon l'OMS, la formulation des politiques de santé doit être protégée contre les distorsions causées par des intérêts commerciaux ou particuliers. »
 </t>
         </is>
